--- a/biology/Botanique/Chlorophytum/Chlorophytum.xlsx
+++ b/biology/Botanique/Chlorophytum/Chlorophytum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorophytum est un genre de plantes comportant plus de 200 espèces, dont la plus connue est Chlorophytum comosum (Plante araignée), une plante d'intérieur très répandue.
 Chlorophytum borivilianum (en) est cultivé comme plante médicinale.
@@ -515,9 +527,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 septembre 2020) :
 Chlorophytum acutum (C.H. Wright) Nordal
 Chlorophytum affine Baker
 Chlorophytum africanum (Baker) Baker
@@ -712,7 +726,7 @@
 Chlorophytum zambiense Bjorå &amp; Nordal
 Chlorophytum zavattarii (Cufod.) Nordal
 Chlorophytum zingiberastrum Nordal &amp; A.D. Poulsen
-Selon Catalogue of Life                                   (18 septembre 2020)[3] :
+Selon Catalogue of Life                                   (18 septembre 2020) :
 Chlorophytum acutum (C.H.Wright) Nordal
 Chlorophytum affine Baker
 Chlorophytum africanum (Baker) Baker
@@ -902,7 +916,7 @@
 Chlorophytum zambiense Bjorå &amp; Nordal
 Chlorophytum zavattarii (Cufod.) Nordal
 Chlorophytum zingiberastrum Nordal &amp; A.D.Poulsen
-Selon World Checklist of Selected Plant Families (WCSP)                (18 septembre 2020)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)                (18 septembre 2020) :
 Chlorophytum acutum (C.H.Wright) Nordal (1993)
 Chlorophytum affine Baker (1875)
 variété Chlorophytum affine var. affine
@@ -1143,7 +1157,7 @@
 Chlorophytum zambiense Bjorå &amp; Nordal (2008)
 Chlorophytum zavattarii (Cufod.) Nordal (1993)
 Chlorophytum zingiberastrum Nordal &amp; A.D.Poulsen, Fl. Trop. E. Africa (1997)
-Selon The Plant List            (18 septembre 2020)[5] :
+Selon The Plant List            (18 septembre 2020) :
 Chlorophytum acutum (C.H.Wright) Nordal
 Chlorophytum affine Baker
 Chlorophytum africanum (Baker) Baker
@@ -1297,7 +1311,7 @@
 Chlorophytum pygmaeum (Weim.) Kativu
 Chlorophytum radula (Baker) Nordal
 Chlorophytum ramosissimum Nordal &amp; Thulin
-Chlorophytum r</t>
+Chlorophytum rangei (Engl.</t>
         </is>
       </c>
     </row>
